--- a/picture/fillna.xlsx
+++ b/picture/fillna.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="fillna" sheetId="1" r:id="rId1"/>
+    <sheet name="dropna" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="31">
   <si>
     <t>country</t>
   </si>
@@ -517,12 +518,259 @@
       <t xml:space="preserve"> NaN</t>
     </r>
   </si>
+  <si>
+    <t>первый после nan</t>
+  </si>
+  <si>
+    <r>
+      <t>miss_val.fillna(value = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>первый после nan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">', limit = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>miss_val.fillna(method = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>ffill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">', axis = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, limit = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>miss_val.dropna(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <r>
+      <t>miss_val.dropna(how = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">')
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t># удалит только там где все столбцы = NaN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>miss_val.dropna(subset = ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>random_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"># удалит строки у которых столбец random_num - NaN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">miss_val.dropna(axis = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>, subset = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Akrobat"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"># удалит    столбцы у которых
+# в строке с индексом 4 - NaN </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +800,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Akrobat"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Akrobat"/>
       <family val="3"/>
@@ -563,6 +817,12 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Akrobat"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="9"/>
@@ -570,7 +830,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,8 +879,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -652,11 +918,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,6 +1063,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:D30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>1</v>
       </c>
@@ -1841,7 +2226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>2</v>
       </c>
@@ -1870,7 +2255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>3</v>
       </c>
@@ -1899,7 +2284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>4</v>
       </c>
@@ -1928,7 +2313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>5</v>
       </c>
@@ -1957,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>6</v>
       </c>
@@ -1986,7 +2371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>7</v>
       </c>
@@ -2015,7 +2400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>8</v>
       </c>
@@ -2044,7 +2429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>9</v>
       </c>
@@ -2073,7 +2458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>10</v>
       </c>
@@ -2102,7 +2487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2113,11 +2498,376 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
+    <row r="44" spans="1:13" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="1:13" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="2">
+        <v>3</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="2">
+        <v>4</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="2">
+        <v>5</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2">
+        <v>6</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="2">
+        <v>6</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2">
+        <v>7</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="2">
+        <v>7</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>8</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="2">
+        <v>8</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2">
+        <v>9</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="2">
+        <v>9</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="2">
+        <v>10</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="2">
+        <v>10</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:L44"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:L2"/>
@@ -2129,4 +2879,1350 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:L57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6" style="7" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6" style="7" customWidth="1"/>
+    <col min="7" max="8" width="21.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="6" style="7" customWidth="1"/>
+    <col min="11" max="12" width="21.140625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>4</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>6</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>7</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="2">
+        <v>9</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2">
+        <v>9</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
+        <v>10</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="2">
+        <v>4</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="2">
+        <v>7</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>8</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>6</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="2">
+        <v>9</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2">
+        <v>7</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="2">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2">
+        <v>9</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="1:12" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="36"/>
+    </row>
+    <row r="47" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="37"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2">
+        <v>3</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="35">
+        <v>4</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="2">
+        <v>4</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2">
+        <v>5</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="2">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>6</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="2">
+        <v>6</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2">
+        <v>7</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="2">
+        <v>7</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>8</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2">
+        <v>8</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="2">
+        <v>8</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2">
+        <v>9</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="2">
+        <v>9</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="2">
+        <v>10</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="2">
+        <v>10</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>